--- a/spring-batch-excel/webscorer.xlsx
+++ b/spring-batch-excel/webscorer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="242">
   <si>
     <t>First name</t>
   </si>
@@ -74,174 +74,156 @@
     <t>13:00:00</t>
   </si>
   <si>
-    <t>Joann Janey</t>
-  </si>
-  <si>
-    <t>Rasmussen</t>
-  </si>
-  <si>
-    <t>Spirit Friidrett</t>
+    <t>Frank Andre</t>
+  </si>
+  <si>
+    <t>Jacobsen</t>
+  </si>
+  <si>
+    <t>AGA klubben</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>27055</t>
+  </si>
+  <si>
+    <t>Kjell</t>
+  </si>
+  <si>
+    <t>Andersen</t>
+  </si>
+  <si>
+    <t>SC Maloja</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Ganzoni</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
+    <t>K40-44 år</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Frederik</t>
+  </si>
+  <si>
+    <t>Bjørnstad</t>
+  </si>
+  <si>
+    <t>Sarpsborg</t>
+  </si>
+  <si>
+    <t>M40-44 år</t>
+  </si>
+  <si>
+    <t>Thor-Andre</t>
+  </si>
+  <si>
+    <t>Søyland</t>
+  </si>
+  <si>
+    <t>Bergen løpeklubb</t>
+  </si>
+  <si>
+    <t>M20-39 år</t>
+  </si>
+  <si>
+    <t>Randi Helen</t>
+  </si>
+  <si>
+    <t>Gran</t>
+  </si>
+  <si>
+    <t>Holmestrand</t>
+  </si>
+  <si>
     <t>K20-39 år</t>
   </si>
   <si>
+    <t>30439</t>
+  </si>
+  <si>
+    <t>Anne Britt</t>
+  </si>
+  <si>
+    <t>Bringedal</t>
+  </si>
+  <si>
+    <t>Romerike Ultraløperklubb</t>
+  </si>
+  <si>
+    <t>K50-54 år</t>
+  </si>
+  <si>
+    <t>33179</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Wiik</t>
+  </si>
+  <si>
+    <t>Tjøme Løpeklubb</t>
+  </si>
+  <si>
+    <t>35852</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Tubaas</t>
+  </si>
+  <si>
+    <t>Stord</t>
+  </si>
+  <si>
+    <t>21737</t>
+  </si>
+  <si>
+    <t>Ingulf</t>
+  </si>
+  <si>
+    <t>Nordahl</t>
+  </si>
+  <si>
+    <t>IL Gular</t>
+  </si>
+  <si>
+    <t>M45-49 år</t>
+  </si>
+  <si>
+    <t>6908</t>
+  </si>
+  <si>
+    <t>Lothar</t>
+  </si>
+  <si>
+    <t>Von Mühleisen</t>
+  </si>
+  <si>
+    <t>Mühleisen Resource Group - MRG A/S</t>
+  </si>
+  <si>
     <t>XL</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Frank Andre</t>
-  </si>
-  <si>
-    <t>Jacobsen</t>
-  </si>
-  <si>
-    <t>AGA klubben</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>27055</t>
-  </si>
-  <si>
-    <t>Kjell</t>
-  </si>
-  <si>
-    <t>Andersen</t>
-  </si>
-  <si>
-    <t>SC Maloja</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Ganzoni</t>
-  </si>
-  <si>
-    <t>K40-44 år</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Frederik</t>
-  </si>
-  <si>
-    <t>Bjørnstad</t>
-  </si>
-  <si>
-    <t>Sarpsborg</t>
-  </si>
-  <si>
-    <t>M40-44 år</t>
-  </si>
-  <si>
-    <t>Thor-Andre</t>
-  </si>
-  <si>
-    <t>Søyland</t>
-  </si>
-  <si>
-    <t>Bergen løpeklubb</t>
-  </si>
-  <si>
-    <t>M20-39 år</t>
-  </si>
-  <si>
-    <t>Rune Kenneth</t>
-  </si>
-  <si>
-    <t>Meisingset</t>
-  </si>
-  <si>
-    <t>Holmestrand</t>
-  </si>
-  <si>
-    <t>29593</t>
-  </si>
-  <si>
-    <t>Randi Helen</t>
-  </si>
-  <si>
-    <t>Gran</t>
-  </si>
-  <si>
-    <t>30439</t>
-  </si>
-  <si>
-    <t>Anne Britt</t>
-  </si>
-  <si>
-    <t>Bringedal</t>
-  </si>
-  <si>
-    <t>Romerike Ultraløperklubb</t>
-  </si>
-  <si>
-    <t>K50-54 år</t>
-  </si>
-  <si>
-    <t>33179</t>
-  </si>
-  <si>
-    <t>Julie</t>
-  </si>
-  <si>
-    <t>Wiik</t>
-  </si>
-  <si>
-    <t>Tjøme Løpeklubb</t>
-  </si>
-  <si>
-    <t>35852</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Tubaas</t>
-  </si>
-  <si>
-    <t>Stord</t>
-  </si>
-  <si>
-    <t>21737</t>
-  </si>
-  <si>
-    <t>Ingulf</t>
-  </si>
-  <si>
-    <t>Nordahl</t>
-  </si>
-  <si>
-    <t>IL Gular</t>
-  </si>
-  <si>
-    <t>M45-49 år</t>
-  </si>
-  <si>
-    <t>6908</t>
-  </si>
-  <si>
-    <t>Lothar</t>
-  </si>
-  <si>
-    <t>Von Mühleisen</t>
-  </si>
-  <si>
-    <t>Mühleisen Resource Group - MRG A/S</t>
-  </si>
-  <si>
     <t>91864063</t>
   </si>
   <si>
@@ -251,18 +233,6 @@
     <t>952101</t>
   </si>
   <si>
-    <t>Eva Midtgard</t>
-  </si>
-  <si>
-    <t>Rike</t>
-  </si>
-  <si>
-    <t>TT IL</t>
-  </si>
-  <si>
-    <t>36654</t>
-  </si>
-  <si>
     <t>Nathalie</t>
   </si>
   <si>
@@ -344,295 +314,259 @@
     <t>M55-59 år</t>
   </si>
   <si>
+    <t>Svein</t>
+  </si>
+  <si>
+    <t>Vestøl</t>
+  </si>
+  <si>
+    <t>Gjerstad IL</t>
+  </si>
+  <si>
+    <t>24195</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Grimstad</t>
+  </si>
+  <si>
+    <t>Veronika</t>
+  </si>
+  <si>
+    <t>Jørn Egil</t>
+  </si>
+  <si>
+    <t>Lundsør</t>
+  </si>
+  <si>
+    <t>www.sykkel.no</t>
+  </si>
+  <si>
+    <t>Bibbi</t>
+  </si>
+  <si>
+    <t>Stålstrøm</t>
+  </si>
+  <si>
+    <t>Team Giant</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Håkon</t>
+  </si>
+  <si>
+    <t>Urdal</t>
+  </si>
+  <si>
+    <t>Eurofins Moss</t>
+  </si>
+  <si>
+    <t>Trygve</t>
+  </si>
+  <si>
+    <t>Fjeldheim</t>
+  </si>
+  <si>
+    <t>Team Sportmanden</t>
+  </si>
+  <si>
+    <t>Olav</t>
+  </si>
+  <si>
+    <t>Hestmann</t>
+  </si>
+  <si>
+    <t>Robustas AS</t>
+  </si>
+  <si>
+    <t>Tero</t>
+  </si>
+  <si>
+    <t>Paivarinne</t>
+  </si>
+  <si>
+    <t>565656</t>
+  </si>
+  <si>
+    <t>Nævdal</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Helgesen</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>099010</t>
+  </si>
+  <si>
+    <t>Nils-Fredrik</t>
+  </si>
+  <si>
+    <t>Solem</t>
+  </si>
+  <si>
+    <t>DNT Ung</t>
+  </si>
+  <si>
+    <t>Gunnar</t>
+  </si>
+  <si>
+    <t>Skandsen</t>
+  </si>
+  <si>
+    <t>Noteam</t>
+  </si>
+  <si>
+    <t>M60-64 år</t>
+  </si>
+  <si>
+    <t>21384</t>
+  </si>
+  <si>
+    <t>Maximilian</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>TSV Seeg</t>
+  </si>
+  <si>
+    <t>Therese</t>
+  </si>
+  <si>
+    <t>Falk</t>
+  </si>
+  <si>
+    <t>34482</t>
+  </si>
+  <si>
+    <t>Stine Cathrine</t>
+  </si>
+  <si>
+    <t>Sæther</t>
+  </si>
+  <si>
+    <t>Jessheim</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>Marianne</t>
   </si>
   <si>
-    <t>Moe</t>
+    <t>Pettersen</t>
+  </si>
+  <si>
+    <t>Elixia Jessheim</t>
+  </si>
+  <si>
+    <t>Cecilie Longva</t>
+  </si>
+  <si>
+    <t>Igesund</t>
+  </si>
+  <si>
+    <t>68178</t>
+  </si>
+  <si>
+    <t>Børge</t>
+  </si>
+  <si>
+    <t>Erdal</t>
+  </si>
+  <si>
+    <t>Uteseksjonen United</t>
+  </si>
+  <si>
+    <t>Øystein Jack</t>
+  </si>
+  <si>
+    <t>Næss</t>
+  </si>
+  <si>
+    <t>Romerike ultra</t>
+  </si>
+  <si>
+    <t>68063</t>
+  </si>
+  <si>
+    <t>Terje</t>
+  </si>
+  <si>
+    <t>Furuseth</t>
+  </si>
+  <si>
+    <t>Team Furuseth</t>
+  </si>
+  <si>
+    <t>69198</t>
+  </si>
+  <si>
+    <t>Henning</t>
+  </si>
+  <si>
+    <t>Pedersen</t>
+  </si>
+  <si>
+    <t>Moss skiklubb</t>
+  </si>
+  <si>
+    <t>27338</t>
+  </si>
+  <si>
+    <t>Bente</t>
+  </si>
+  <si>
+    <t>Nordanger</t>
+  </si>
+  <si>
+    <t>K55-59 år</t>
+  </si>
+  <si>
+    <t>69285</t>
+  </si>
+  <si>
+    <t>Jørgen</t>
+  </si>
+  <si>
+    <t>950303</t>
+  </si>
+  <si>
+    <t>Fredrik</t>
+  </si>
+  <si>
+    <t>Kolverud</t>
+  </si>
+  <si>
+    <t>Sk Vidar</t>
+  </si>
+  <si>
+    <t>Gro</t>
+  </si>
+  <si>
+    <t>Svendal</t>
+  </si>
+  <si>
+    <t>Fjellgeitene</t>
   </si>
   <si>
     <t>K45-49 år</t>
-  </si>
-  <si>
-    <t>26139</t>
-  </si>
-  <si>
-    <t>Svein</t>
-  </si>
-  <si>
-    <t>Vestøl</t>
-  </si>
-  <si>
-    <t>Gjerstad IL</t>
-  </si>
-  <si>
-    <t>24195</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Grimstad</t>
-  </si>
-  <si>
-    <t>Veronika</t>
-  </si>
-  <si>
-    <t>Jørn Egil</t>
-  </si>
-  <si>
-    <t>Lundsør</t>
-  </si>
-  <si>
-    <t>www.sykkel.no</t>
-  </si>
-  <si>
-    <t>Truls</t>
-  </si>
-  <si>
-    <t>Bibbi</t>
-  </si>
-  <si>
-    <t>Stålstrøm</t>
-  </si>
-  <si>
-    <t>Team Giant</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Håkon</t>
-  </si>
-  <si>
-    <t>Urdal</t>
-  </si>
-  <si>
-    <t>Eurofins Moss</t>
-  </si>
-  <si>
-    <t>Sondre</t>
-  </si>
-  <si>
-    <t>Kongsgård</t>
-  </si>
-  <si>
-    <t>NTNUI</t>
-  </si>
-  <si>
-    <t>Trygve</t>
-  </si>
-  <si>
-    <t>Fjeldheim</t>
-  </si>
-  <si>
-    <t>Team Sportmanden</t>
-  </si>
-  <si>
-    <t>Olav</t>
-  </si>
-  <si>
-    <t>Hestmann</t>
-  </si>
-  <si>
-    <t>Robustas AS</t>
-  </si>
-  <si>
-    <t>Tero</t>
-  </si>
-  <si>
-    <t>Paivarinne</t>
-  </si>
-  <si>
-    <t>565656</t>
-  </si>
-  <si>
-    <t>Nævdal</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Helgesen</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>099010</t>
-  </si>
-  <si>
-    <t>Nils-Fredrik</t>
-  </si>
-  <si>
-    <t>Solem</t>
-  </si>
-  <si>
-    <t>DNT Ung</t>
-  </si>
-  <si>
-    <t>Gunnar</t>
-  </si>
-  <si>
-    <t>Skandsen</t>
-  </si>
-  <si>
-    <t>Noteam</t>
-  </si>
-  <si>
-    <t>M60-64 år</t>
-  </si>
-  <si>
-    <t>21384</t>
-  </si>
-  <si>
-    <t>Maximilian</t>
-  </si>
-  <si>
-    <t>Kasper</t>
-  </si>
-  <si>
-    <t>TSV Seeg</t>
-  </si>
-  <si>
-    <t>Therese</t>
-  </si>
-  <si>
-    <t>Falk</t>
-  </si>
-  <si>
-    <t>34482</t>
-  </si>
-  <si>
-    <t>Stine Cathrine</t>
-  </si>
-  <si>
-    <t>Sæther</t>
-  </si>
-  <si>
-    <t>Jessheim</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Pettersen</t>
-  </si>
-  <si>
-    <t>Elixia Jessheim</t>
-  </si>
-  <si>
-    <t>Cecilie Longva</t>
-  </si>
-  <si>
-    <t>Igesund</t>
-  </si>
-  <si>
-    <t>68178</t>
-  </si>
-  <si>
-    <t>Børge</t>
-  </si>
-  <si>
-    <t>Erdal</t>
-  </si>
-  <si>
-    <t>Uteseksjonen United</t>
-  </si>
-  <si>
-    <t>Øystein Jack</t>
-  </si>
-  <si>
-    <t>Næss</t>
-  </si>
-  <si>
-    <t>Romerike ultra</t>
-  </si>
-  <si>
-    <t>68063</t>
-  </si>
-  <si>
-    <t>Terje</t>
-  </si>
-  <si>
-    <t>Furuseth</t>
-  </si>
-  <si>
-    <t>Team Furuseth</t>
-  </si>
-  <si>
-    <t>69198</t>
-  </si>
-  <si>
-    <t>Henning</t>
-  </si>
-  <si>
-    <t>Pedersen</t>
-  </si>
-  <si>
-    <t>Moss skiklubb</t>
-  </si>
-  <si>
-    <t>27338</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
-    <t>Sagvolden</t>
-  </si>
-  <si>
-    <t>989898</t>
-  </si>
-  <si>
-    <t>Bente</t>
-  </si>
-  <si>
-    <t>Nordanger</t>
-  </si>
-  <si>
-    <t>K55-59 år</t>
-  </si>
-  <si>
-    <t>69285</t>
-  </si>
-  <si>
-    <t>Jørgen</t>
-  </si>
-  <si>
-    <t>950303</t>
-  </si>
-  <si>
-    <t>Ivar August</t>
-  </si>
-  <si>
-    <t>Bull</t>
-  </si>
-  <si>
-    <t>Bergen Brannvesen</t>
-  </si>
-  <si>
-    <t>Fredrik</t>
-  </si>
-  <si>
-    <t>Kolverud</t>
-  </si>
-  <si>
-    <t>Sk Vidar</t>
-  </si>
-  <si>
-    <t>Gro</t>
-  </si>
-  <si>
-    <t>Svendal</t>
-  </si>
-  <si>
-    <t>Fjellgeitene</t>
   </si>
   <si>
     <t>Luca</t>
@@ -938,22 +872,22 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -964,19 +898,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -985,10 +919,10 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -999,31 +933,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -1034,19 +968,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1055,10 +989,10 @@
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -1069,31 +1003,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
@@ -1104,31 +1038,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
@@ -1148,22 +1082,22 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -1174,31 +1108,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -1209,31 +1143,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>53.0</v>
+        <v>44.0</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>19</v>
@@ -1244,31 +1178,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
@@ -1279,31 +1213,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
@@ -1314,28 +1248,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0</v>
+        <v>21.0</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
         <v>72</v>
@@ -1358,22 +1292,22 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>51.0</v>
+        <v>35.0</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>19</v>
@@ -1387,28 +1321,28 @@
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>19</v>
@@ -1419,31 +1353,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
@@ -1463,22 +1397,22 @@
         <v>85</v>
       </c>
       <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>19</v>
@@ -1489,31 +1423,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>19</v>
@@ -1524,31 +1458,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
@@ -1568,22 +1502,22 @@
         <v>95</v>
       </c>
       <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>19</v>
@@ -1600,25 +1534,25 @@
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>47.0</v>
+        <v>58.0</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>19</v>
@@ -1629,13 +1563,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1647,13 +1581,13 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>19</v>
@@ -1664,31 +1598,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>54.0</v>
+        <v>44.0</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>19</v>
@@ -1699,31 +1633,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>58.0</v>
+        <v>40.0</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>19</v>
@@ -1734,31 +1668,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
         <v>110</v>
       </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>19</v>
@@ -1769,31 +1703,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>19</v>
@@ -1804,31 +1738,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>19</v>
@@ -1839,31 +1773,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>19</v>
@@ -1874,31 +1808,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>19</v>
@@ -1909,31 +1843,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>19</v>
@@ -1944,16 +1878,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
         <v>41.0</v>
@@ -1965,10 +1899,10 @@
         <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>19</v>
@@ -1979,7 +1913,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>127</v>
@@ -1991,19 +1925,19 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>51.0</v>
+        <v>25.0</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>19</v>
@@ -2014,31 +1948,31 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>131</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>19</v>
@@ -2061,19 +1995,19 @@
         <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>19</v>
@@ -2096,19 +2030,19 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>41.0</v>
+        <v>60.0</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>19</v>
@@ -2119,31 +2053,31 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>19</v>
@@ -2154,16 +2088,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
         <v>41.0</v>
@@ -2172,13 +2106,13 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>19</v>
@@ -2189,31 +2123,31 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>19</v>
@@ -2224,31 +2158,31 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>19</v>
@@ -2259,31 +2193,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
@@ -2294,31 +2228,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>19</v>
@@ -2329,31 +2263,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>45.0</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>19</v>
@@ -2364,19 +2298,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -2385,10 +2319,10 @@
         <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>19</v>
@@ -2399,31 +2333,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>19</v>
@@ -2434,31 +2368,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E46" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>19</v>
@@ -2469,31 +2403,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
         <v>23</v>
       </c>
-      <c r="E47" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s">
-        <v>39</v>
-      </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>19</v>
@@ -2504,31 +2438,31 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>19</v>
@@ -2539,31 +2473,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E49" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>19</v>
@@ -2574,31 +2508,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>19</v>
@@ -2609,31 +2543,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>19</v>
@@ -2644,31 +2578,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>19</v>
@@ -2679,31 +2613,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>57.0</v>
+        <v>18.0</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H53" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I53" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>19</v>
@@ -2717,28 +2651,28 @@
         <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E54" t="n">
-        <v>23.0</v>
+        <v>39.0</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -2749,31 +2683,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E55" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>19</v>
@@ -2784,31 +2718,31 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E56" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>19</v>
@@ -2819,31 +2753,31 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E57" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>19</v>
@@ -2854,31 +2788,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E58" t="n">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>19</v>
@@ -2889,31 +2823,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
       <c r="E59" t="n">
-        <v>37.0</v>
+        <v>53.0</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>19</v>
@@ -2924,31 +2858,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E60" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>19</v>
@@ -2959,31 +2893,31 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>19</v>
@@ -2994,31 +2928,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>19</v>
@@ -3029,31 +2963,31 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" t="s">
         <v>23</v>
       </c>
-      <c r="E63" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" t="s">
-        <v>17</v>
-      </c>
       <c r="I63" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>19</v>
@@ -3064,31 +2998,31 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
         <v>23</v>
       </c>
-      <c r="E64" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" t="s">
-        <v>30</v>
-      </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>19</v>
@@ -3099,31 +3033,31 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>19</v>
@@ -3134,31 +3068,31 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E66" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H66" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>19</v>
@@ -3169,19 +3103,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -3190,296 +3124,16 @@
         <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K67" t="n">
         <v>66.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>239</v>
-      </c>
-      <c r="B68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" t="n">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" t="s">
-        <v>245</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>246</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" t="n">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>247</v>
-      </c>
-      <c r="B71" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" t="s">
-        <v>26</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>250</v>
-      </c>
-      <c r="B72" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" t="s">
-        <v>253</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H73" t="s">
-        <v>168</v>
-      </c>
-      <c r="I73" t="s">
-        <v>256</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" t="n">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>257</v>
-      </c>
-      <c r="B74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>260</v>
-      </c>
-      <c r="B75" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" t="s">
-        <v>262</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" t="s">
-        <v>263</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" t="n">
-        <v>74.0</v>
       </c>
     </row>
   </sheetData>
